--- a/medicine/Psychotrope/Family_Business_(série_télévisée)/Family_Business_(série_télévisée).xlsx
+++ b/medicine/Psychotrope/Family_Business_(série_télévisée)/Family_Business_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Family_Business_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Family Business ou Tout part en fumée au Québec est une série télévisée française créée par Igor Gotesman. Les trois saisons ont été diffusées entre le 28 juin 2019 et le 8 octobre 2021 sur Netflix.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Family_Business_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le Marais, Gérard Hazan tente tant bien que mal de maintenir la boucherie casher familiale depuis le décès de sa femme, Bénédicte. Son fils, Joseph, entrepreneur raté, pense cependant avoir la solution : en effet, il tient de Clémentine, fêtarde parisienne et fille du futur ministre de la Santé, que le cannabis va être légalisé prochainement. Il tente alors de convaincre le reste de la famille de transformer la boucherie en coffee shop, le premier de France. En attendant cette légalisation, les Hazan vont cependant devoir cacher leur « business » et cultiver leur herbe en cachette afin d'être prêts[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Marais, Gérard Hazan tente tant bien que mal de maintenir la boucherie casher familiale depuis le décès de sa femme, Bénédicte. Son fils, Joseph, entrepreneur raté, pense cependant avoir la solution : en effet, il tient de Clémentine, fêtarde parisienne et fille du futur ministre de la Santé, que le cannabis va être légalisé prochainement. Il tente alors de convaincre le reste de la famille de transformer la boucherie en coffee shop, le premier de France. En attendant cette légalisation, les Hazan vont cependant devoir cacher leur « business » et cultiver leur herbe en cachette afin d'être prêts.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Family_Business_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Gérard Darmon : Gérard Hazan, le père de Joseph et Aure
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gérard Darmon : Gérard Hazan, le père de Joseph et Aure
 Jonathan Cohen : Joseph Hazan, le fils de Gérard
 Julia Piaton : Aure Hazan, la fille de Gérard
 Liliane Rovère : Ludmila Rosenberg, la belle-mère de Gérard et grand-mère de Joseph et Aure
@@ -553,14 +572,86 @@
 Ali Marhyar : Ali Benkikir, un ami proche de la famille Hazan et frère d'Aïda
 Louise Coldefy : Clémentine Cendron, la fille du Ministre de la Santé et petite amie d'Olivier
 Lina El Arabi : Aïda Benkikir, la sœur d'Ali, meilleure amie d’Aure et femme de Joseph
-Oussama Kheddam : Youssef Benkikir, le frère d'Ali et Aïda
-Acteurs secondaires
-Ariane Mourier : Élodie, la gendarme
+Oussama Kheddam : Youssef Benkikir, le frère d'Ali et Aïda</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ariane Mourier : Élodie, la gendarme
 Enrico Macias : lui-même
 Tamar Baruch : Jaurès
-Philippe Dusseau : M. Cendron, le Ministre de la Santé et père de Clémentine
-Saison 1
-Jean-Luc Porraz : L'acheteur de maison
+Philippe Dusseau : M. Cendron, le Ministre de la Santé et père de Clémentine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean-Luc Porraz : L'acheteur de maison
 Sophie-Marie Larrouy : Mélanie, l'ex d'Ali
 Martin Pautard : Virgile
 Naël Rabia : Jean-Pierre Benkikir
@@ -573,9 +664,47 @@
 Chihiro Niuya : Tomoko, la petite amie japonaise d'Aure
 Guus Dam : Yohan, le « contact » de Ludmila du marché aux fleurs d'Amsterdam
 Valérie Damidot : elle-même
-Philippe Bertin : Le gardien du cimetière (saison 1-2)
-Saison 2
-Alexandra Vandernoot : Catherine / Penelope
+Philippe Bertin : Le gardien du cimetière (saison 1-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alexandra Vandernoot : Catherine / Penelope
 Anton Yakovlev : Vadim
 Michael Vander-Meiren : Senlis / Jean-Claude
 Guillaume Bouchède : Gaëtan, le gendarme
@@ -586,9 +715,47 @@
 Louis Vasquez : Steven, de l'atelier des masques
 Laurent Pons : Hervé, le maton
 Marc Raffray : La brute
-Raphaël Thiéry : Le complice d'évasion voyant
-Saison 3
-Raphaël Quenard : Léonard
+Raphaël Thiéry : Le complice d'évasion voyant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Raphaël Quenard : Léonard
 Jochen Haegele : le docteur
 Miglen Mirtchev : M. Finanouk
 Adrien Wadih : l'homme du cimetière
@@ -599,62 +766,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Netflix annonce le 11 juillet 2019 que la série reviendra pour une saison 2[2]. Celle-ci sort le 11 septembre 2020 sur la plateforme. Un mois plus tard, le 2 octobre 2020, la plateforme confirme une saison 3, sans préciser de date. Elle est mise à disposition le 8 octobre 2021, avec l'annonce que cette saison sera la dernière de la série.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Netflix annonce le 11 juillet 2019 que la série reviendra pour une saison 2. Celle-ci sort le 11 septembre 2020 sur la plateforme. Un mois plus tard, le 2 octobre 2020, la plateforme confirme une saison 3, sans préciser de date. Elle est mise à disposition le 8 octobre 2021, avec l'annonce que cette saison sera la dernière de la série.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Titre original : Family Business
 Titre québécois : Tout part en fumée
@@ -665,79 +836,154 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Lieux de tournage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la saison 3, des scènes sont tournées au couvent de Tuani situé en Haute-Corse, dans la région historique de Balagne et l'ancienne piève de Tuani, sur la commune de Costa[réf. souhaitée]. Le couvent fait partie de l'inventaire supplémentaire des monuments historiques[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la saison 3, des scènes sont tournées au couvent de Tuani situé en Haute-Corse, dans la région historique de Balagne et l'ancienne piève de Tuani, sur la commune de Costa[réf. souhaitée]. Le couvent fait partie de l'inventaire supplémentaire des monuments historiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Première saison (2019)
-Business Plan
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Première saison (2019)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Business Plan
 Deal
 Les Porcs d'Amsterdam
 Plantade
 Pastraweed
-Terminus
-Deuxième saison (2020)
-Le droit chemin
+Terminus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2020)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le droit chemin
 Bande rivale
 Le Bouillon
 Dernier petit cadeau
 Exposé plein sud
-Burrata
-Troisième saison (2021)
-Plein nord
+Burrata</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Troisième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Plein nord
 Showtime
 Les dix commandements
 Boukha pour tout le monde
@@ -746,36 +992,76 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critiques positives
-Dans L'Express Valentin Pimare considère la série comme « la création Netflix France la plus réjouissante à ce jour »[4] et dans Télérama Pierre Langlais la qualifie de « sympathique grâce à une excellente distribution »[5].
-Critiques négatives
-Dans Le Figaro, Constance Jamet y voit « une fiction trop sage vu son sujet faussement transgressif » et dans Première, Charles Martin une comédie qui « cherche son ton, entre farce crasse ou satire sociale plus malicieuse »[6]. Enfin, Le Monde parle d'un « ratage made in France »[7].
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Critiques positives</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans L'Express Valentin Pimare considère la série comme « la création Netflix France la plus réjouissante à ce jour » et dans Télérama Pierre Langlais la qualifie de « sympathique grâce à une excellente distribution ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Family_Business_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Family_Business_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Critiques négatives</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans Le Figaro, Constance Jamet y voit « une fiction trop sage vu son sujet faussement transgressif » et dans Première, Charles Martin une comédie qui « cherche son ton, entre farce crasse ou satire sociale plus malicieuse ». Enfin, Le Monde parle d'un « ratage made in France ».
 </t>
         </is>
       </c>
